--- a/Texture Calculation.xlsx
+++ b/Texture Calculation.xlsx
@@ -424,18 +424,18 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="C1">
         <f>(14+4*7+4*5)*B1</f>
-        <v>15810</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1">
         <f>(C1-C2+15810)*3.162555*0.00001</f>
-        <v>0.99999989099999997</v>
+        <v>0.49999994549999999</v>
       </c>
       <c r="K1">
         <v>14</v>
@@ -482,8 +482,8 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <f>IF(B10&lt;=0,(15810+B10),(15810+B10/4))*3.162555*0.00001</f>
-        <v>0.50604833193749998</v>
+        <f>IF(C10&lt;=0,(15810+C10),(15810+C10/4))*3.162555*0.00001</f>
+        <v>0.57107836912499998</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -521,11 +521,11 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>15810</v>
+        <v>6200</v>
       </c>
       <c r="K5">
         <f>(14+7+7+7+7+5+5+5+5 *- 255 +15810)* 3.16255537 * 0.00001</f>
@@ -562,11 +562,11 @@
       </c>
       <c r="B10">
         <f>B5*4-B6</f>
-        <v>765</v>
+        <v>145</v>
       </c>
       <c r="C10">
         <f>C5*4-C6</f>
-        <v>47430</v>
+        <v>8990</v>
       </c>
     </row>
   </sheetData>

--- a/Texture Calculation.xlsx
+++ b/Texture Calculation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen Ye\Documents\GitHub\Skylines-Autumn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen Ye\Documents\Github\Skylines-Autumn\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ore</t>
   </si>
@@ -60,6 +60,21 @@
   </si>
   <si>
     <t>num3</t>
+  </si>
+  <si>
+    <t>color rB</t>
+  </si>
+  <si>
+    <t>colorgB</t>
+  </si>
+  <si>
+    <t>colorbB</t>
+  </si>
+  <si>
+    <t>burned</t>
+  </si>
+  <si>
+    <t>destroyed</t>
   </si>
 </sst>
 </file>
@@ -411,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,18 +439,18 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="C1">
         <f>(14+4*7+4*5)*B1</f>
-        <v>0</v>
+        <v>15810</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1">
         <f>(C1-C2+15810)*3.162555*0.00001</f>
-        <v>0.49999994549999999</v>
+        <v>0.99999989099999997</v>
       </c>
       <c r="K1">
         <v>14</v>
@@ -475,15 +490,15 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C7" si="0">(14+4*7+4*5)*B3</f>
+        <f t="shared" ref="C3:C9" si="0">(14+4*7+4*5)*B3</f>
         <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3">
-        <f>IF(C10&lt;=0,(15810+C10),(15810+C10/4))*3.162555*0.00001</f>
-        <v>0.57107836912499998</v>
+        <f>IF(C11&lt;=0,(15810+C11),(15810+C11/4))*3.162555*0.00001</f>
+        <v>0.49999994549999999</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -521,11 +536,11 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>6200</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <f>(14+7+7+7+7+5+5+5+5 *- 255 +15810)* 3.16255537 * 0.00001</f>
@@ -537,11 +552,11 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>15810</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -555,18 +570,63 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <f>C7*6.325111*0.00001</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <f>C8*6.325111*0.00001</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <f>C9*6.325111*0.00001</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <f>B5*4-B6</f>
-        <v>145</v>
-      </c>
-      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <f>C5*4-C6</f>
-        <v>8990</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
